--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3513718.305969994</v>
+        <v>3511830.724453593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>23.38267037520646</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.46179076613115</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.0065037122683</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.71969997626034</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>129.0246247964033</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.3514698018584</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9765264254019</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.562624396424664</v>
+        <v>140.0424879565122</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>89.15058872626261</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>268.8237507071504</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>8.525532102718971</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>154.4060242929242</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0205566759037</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>78.67531269947673</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897914</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571501</v>
+        <v>46.1533758617862</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.3318138408822</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2673.530232053367</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2673.530232053367</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2673.530232053367</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2419.768446691459</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.705559347888</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1735.936904077774</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1362.471145816694</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>972.3318138408822</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5045,19 +5045,19 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954964</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5467,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5525,37 +5525,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227916</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169048</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799442</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X19" t="n">
-        <v>102.8359039819269</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U22" t="n">
-        <v>1003.591713218973</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V22" t="n">
-        <v>1003.591713218973</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W22" t="n">
-        <v>714.1745431820126</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X22" t="n">
-        <v>486.1849922839953</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6069,10 +6069,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>316.9584588710877</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
         <v>1332.091733170013</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
+        <v>318.0096706038159</v>
+      </c>
+      <c r="Y25" t="n">
         <v>97.21709146028587</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>97.21709146028593</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,13 +6218,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6233,43 +6233,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383383</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383383</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383383</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227925</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>718.9614320188289</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>429.5442619818684</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X28" t="n">
-        <v>429.5442619818684</v>
+        <v>757.72413441243</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383383</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542167</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542167</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264624</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264624</v>
+        <v>347.3802016531956</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>256.2511194366563</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>143.8366630378477</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>143.8366630378477</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818919</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652452</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030857</v>
+        <v>565.4200295030868</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,34 +6695,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,46 +6935,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>488.2756279992592</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7649,13 +7649,13 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>167.8887746690279</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>50.62661940943673</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9480,25 +9480,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>29.47535963978225</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,16 +10902,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>349.765300333857</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>29.47535963978223</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>80.5002137261522</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800789</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.7331289636353</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.0220289556701</v>
+        <v>78.54216539558256</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>108.7702212573408</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>17.41360169142689</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338542</v>
+        <v>189.3952778808843</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>97.7316190309038</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>39.56409667619107</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>14.73690369017864</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801219</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437426</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.062612973928713</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698558.730471854</v>
+        <v>698558.7304718539</v>
       </c>
     </row>
     <row r="6">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312477</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409904</v>
@@ -26326,34 +26326,34 @@
         <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542229</v>
+        <v>711938.7403542232</v>
       </c>
       <c r="L2" t="n">
+        <v>718411.5486312486</v>
+      </c>
+      <c r="M2" t="n">
+        <v>718411.5486312488</v>
+      </c>
+      <c r="N2" t="n">
         <v>718411.5486312483</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>718411.5486312483</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>718411.5486312485</v>
-      </c>
-      <c r="O2" t="n">
-        <v>718411.5486312485</v>
-      </c>
-      <c r="P2" t="n">
-        <v>718411.5486312484</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284584</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563561</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111190.3668979288</v>
+        <v>-111190.3668979286</v>
       </c>
       <c r="C6" t="n">
-        <v>478777.5123166159</v>
+        <v>478777.5123166161</v>
       </c>
       <c r="D6" t="n">
-        <v>478777.5123166158</v>
+        <v>478777.5123166157</v>
       </c>
       <c r="E6" t="n">
-        <v>52107.82249393869</v>
+        <v>52010.36336796652</v>
       </c>
       <c r="F6" t="n">
-        <v>577267.8589708346</v>
+        <v>577170.3998448625</v>
       </c>
       <c r="G6" t="n">
-        <v>577267.8589708349</v>
+        <v>577170.3998448623</v>
       </c>
       <c r="H6" t="n">
-        <v>577267.8589708344</v>
+        <v>577170.3998448629</v>
       </c>
       <c r="I6" t="n">
-        <v>577267.8589708349</v>
+        <v>577170.3998448629</v>
       </c>
       <c r="J6" t="n">
-        <v>400844.639778242</v>
+        <v>400747.1806522695</v>
       </c>
       <c r="K6" t="n">
-        <v>537937.6343855191</v>
+        <v>537919.1406475847</v>
       </c>
       <c r="L6" t="n">
-        <v>572889.0791475964</v>
+        <v>572889.0791475968</v>
       </c>
       <c r="M6" t="n">
-        <v>448430.9707146261</v>
+        <v>448430.9707146266</v>
       </c>
       <c r="N6" t="n">
-        <v>583231.9859484636</v>
+        <v>583231.9859484633</v>
       </c>
       <c r="O6" t="n">
-        <v>583231.9859484636</v>
+        <v>583231.9859484633</v>
       </c>
       <c r="P6" t="n">
-        <v>539069.3806456178</v>
+        <v>539069.3806456177</v>
       </c>
     </row>
   </sheetData>
@@ -26701,19 +26701,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26768,10 +26768,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>31.09573219960525</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.4685793061306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,19 +27667,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.72459696620069</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>92.89577304195201</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>83.12091415361559</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>46.76331713866857</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.936955798779477e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>481.7210653803926</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,10 +35507,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>299.884324365461</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36200,25 +36200,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>448.8807855431339</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36361,7 +36361,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>180.0507982277215</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>453.6603905710345</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941225</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043173</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>353.0984438117331</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>660.1896773843232</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.38553859468888</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
